--- a/E2M2-2020/Activities/StudentInstructor_Feedback.xlsx
+++ b/E2M2-2020/Activities/StudentInstructor_Feedback.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caraebrook/Documents/R/R_repositories/E2M2/E2M2-2020/Activities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244F61C0-BE43-7D4D-AB1B-A1A58F1CD073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E9BEA4-C0A7-904D-95F2-B29E29908784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="960" windowWidth="27640" windowHeight="16260" xr2:uid="{3C0E4F26-A871-B243-A6FF-E24A2C70C399}"/>
+    <workbookView xWindow="9020" yWindow="940" windowWidth="27640" windowHeight="16260" xr2:uid="{3C0E4F26-A871-B243-A6FF-E24A2C70C399}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="67">
   <si>
     <t>Student</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Done?</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -301,7 +307,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -324,11 +330,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -339,6 +356,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEE972E-E9E3-6644-A899-FD9A443BEC5D}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD73"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,7 +690,7 @@
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -682,8 +700,11 @@
       <c r="C1" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>60</v>
       </c>
@@ -694,7 +715,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>60</v>
       </c>
@@ -705,7 +726,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>60</v>
       </c>
@@ -716,7 +737,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>60</v>
       </c>
@@ -727,7 +748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>60</v>
       </c>
@@ -738,7 +759,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>60</v>
       </c>
@@ -749,7 +770,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>60</v>
       </c>
@@ -760,7 +781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>60</v>
       </c>
@@ -771,7 +792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>60</v>
       </c>
@@ -782,7 +803,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>63</v>
       </c>
@@ -793,7 +814,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>63</v>
       </c>
@@ -804,7 +825,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>63</v>
       </c>
@@ -815,7 +836,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>63</v>
       </c>
@@ -826,7 +847,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>63</v>
       </c>
@@ -837,7 +858,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>63</v>
       </c>
@@ -1024,7 +1045,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>59</v>
       </c>
@@ -1035,7 +1056,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>59</v>
       </c>
@@ -1046,7 +1067,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>59</v>
       </c>
@@ -1057,7 +1078,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>59</v>
       </c>
@@ -1068,7 +1089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>59</v>
       </c>
@@ -1079,7 +1100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>62</v>
       </c>
@@ -1090,7 +1111,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>62</v>
       </c>
@@ -1101,7 +1122,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>62</v>
       </c>
@@ -1112,7 +1133,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>62</v>
       </c>
@@ -1123,7 +1144,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>62</v>
       </c>
@@ -1134,7 +1155,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>62</v>
       </c>
@@ -1145,7 +1166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>62</v>
       </c>
@@ -1156,7 +1177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>62</v>
       </c>
@@ -1167,7 +1188,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>62</v>
       </c>
@@ -1178,7 +1199,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>58</v>
       </c>
@@ -1188,8 +1209,11 @@
       <c r="C47" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>58</v>
       </c>
@@ -1199,8 +1223,11 @@
       <c r="C48" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>58</v>
       </c>
@@ -1210,8 +1237,11 @@
       <c r="C49" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>58</v>
       </c>
@@ -1221,8 +1251,11 @@
       <c r="C50" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
@@ -1232,8 +1265,11 @@
       <c r="C51" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>58</v>
       </c>
@@ -1243,8 +1279,11 @@
       <c r="C52" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -1254,8 +1293,11 @@
       <c r="C53" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>58</v>
       </c>
@@ -1265,8 +1307,11 @@
       <c r="C54" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
@@ -1276,8 +1321,11 @@
       <c r="C55" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>58</v>
       </c>
@@ -1286,6 +1334,9 @@
       </c>
       <c r="C56" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="D56" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/E2M2-2020/Activities/StudentInstructor_Feedback.xlsx
+++ b/E2M2-2020/Activities/StudentInstructor_Feedback.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caraebrook/Documents/R/R_repositories/E2M2/E2M2-2020/Activities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E9BEA4-C0A7-904D-95F2-B29E29908784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559D3F83-3E03-E349-BFA7-FA0E84D980DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9020" yWindow="940" windowWidth="27640" windowHeight="16260" xr2:uid="{3C0E4F26-A871-B243-A6FF-E24A2C70C399}"/>
+    <workbookView xWindow="1160" yWindow="940" windowWidth="27640" windowHeight="16260" xr2:uid="{3C0E4F26-A871-B243-A6FF-E24A2C70C399}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="67">
   <si>
     <t>Student</t>
   </si>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEE972E-E9E3-6644-A899-FD9A443BEC5D}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -869,7 +869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>63</v>
       </c>
@@ -880,7 +880,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>63</v>
       </c>
@@ -891,7 +891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>63</v>
       </c>
@@ -902,7 +902,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>61</v>
       </c>
@@ -912,8 +912,11 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>61</v>
       </c>
@@ -923,8 +926,11 @@
       <c r="C21" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>61</v>
       </c>
@@ -935,7 +941,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>61</v>
       </c>
@@ -946,7 +952,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>61</v>
       </c>
@@ -957,7 +963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>61</v>
       </c>
@@ -968,7 +974,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>61</v>
       </c>
@@ -979,7 +985,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>61</v>
       </c>
@@ -990,7 +996,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>61</v>
       </c>
@@ -1001,7 +1007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -1012,7 +1018,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>59</v>
       </c>
@@ -1023,7 +1029,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>59</v>
       </c>
@@ -1034,7 +1040,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>59</v>
       </c>
@@ -1143,6 +1149,9 @@
       <c r="C41" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
@@ -1154,6 +1163,9 @@
       <c r="C42" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="D42" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
@@ -1176,6 +1188,9 @@
       <c r="C44" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="D44" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
@@ -1197,6 +1212,9 @@
       </c>
       <c r="C46" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="D46" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
